--- a/VBA OTORRINO HOSPITAL MUNICIPAL SÃO JOSE.xlsx
+++ b/VBA OTORRINO HOSPITAL MUNICIPAL SÃO JOSE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CIS051\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SigtapSync\SigtapSync-7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA735796-4009-40EC-AFDF-F595158AFD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C92F1EE-A037-4041-ADF3-1C3A4382A38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5EE52DD6-0FF0-4E3C-8F54-2EE7A039CA26}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5EE52DD6-0FF0-4E3C-8F54-2EE7A039CA26}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -29,41 +29,56 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>CIRURGIAS OTORRINO SUELLEN BAGATIM</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>HON1</t>
   </si>
   <si>
-    <t xml:space="preserve">04.04.01.048-2- Septoplastia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">04.04.01.041-5 - Turbinectomia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">04.04.01.002-4-Amigdalectomia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">04.04.01.001-6- Adenoidectomia </t>
-  </si>
-  <si>
-    <t>04.04.01.048-2- Septoplastia + 04.04.01.041-5 - Turbinectomia</t>
-  </si>
-  <si>
-    <t>04.04.01.003-2- Adenoamigdalectomia</t>
-  </si>
-  <si>
     <t>Combinação de dois ou mais entre os códigos acima (não soma valores individuais)</t>
+  </si>
+  <si>
+    <t>04.04.01.048-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Septoplastia </t>
+  </si>
+  <si>
+    <t>04.04.01.041-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turbinectomia </t>
+  </si>
+  <si>
+    <t>04.04.01.002-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amigdalectomia </t>
+  </si>
+  <si>
+    <t>04.04.01.001-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adenoidectomia </t>
+  </si>
+  <si>
+    <t>04.04.01.003-2</t>
+  </si>
+  <si>
+    <t>Adenoamigdalectomia</t>
+  </si>
+  <si>
+    <t>Septoplastia + 04.04.01.041-5 - Turbinectomia</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>Descricao</t>
   </si>
 </sst>
 </file>
@@ -126,9 +141,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -166,7 +181,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -272,7 +287,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -414,7 +429,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -422,79 +437,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BE37FC-C815-4B0E-8481-EBC139F9065B}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
         <v>700</v>
       </c>
     </row>
